--- a/个人词典.xlsx
+++ b/个人词典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SomeFiles\GithubEnglishLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786FC7AD-41CA-4001-B1A7-DEB996A73B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E93064D-8C24-4695-BC82-61527A5A1117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>recite</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,23 @@
 用力地用语言召唤（且，最常召唤的是 - 语言、过去的事、人）。
 所以，第一个意思是诵 - 朗诵、背诵、吟诵。表示用力地在众人面前去说一段话，也就是用力的召唤语言。（中文，诵，就是大声读嘛，是用力地用语言，所以，能等同于recite的用力的用语言召唤。）
 第二个是用力的用语言召唤以前的事。就是用语言叙述、陈述、声情并茂地使劲表达。They recited all their grievances to me. She could recite a list of all the kings and queens.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis-，表示分散，从分再有否定。
+cern，表示确定。
+discern，用分散的方式确定。就好像有一团雾，我看局部看不到，我看整体，感觉到，奥，原来是一团雾。
+这就是从分散、从整体去觉察。
+所以，这个词的意思是：
+1. 觉察
+2. 依稀看出，分辨出
+所以，从“理解”这个意思看，discern和understand是反的，understand表示的理解，是从一个东西，理解出背后意思，从一个词语理解出一段话。而discern有点接近conclude，从一大段话总结出一段话或一个词语。
+recognize、spot、notice也接近。但他们更接近“觉察”，“缺少理解”的意思。我觉得，discern不是眼睛看到，是心里看到，recognize、spot、notice这三个词，基本同时兼具眼睛和心理，而discern要把眼睛的部分去掉，把心里的部分加强。
+中文“觉察”是很贴合discern的。就是心里的到结论。但，discern更多是心里总结清楚式的心里看到，而“觉察”是把心里本没看到的东西看到，把漏掉的东西看到，不太一样。所以，discern很少翻译成"觉察"。最好的中文翻译，也许是"弄清楚"。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,6 +419,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/个人词典.xlsx
+++ b/个人词典.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SomeFiles\GithubEnglishLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E93064D-8C24-4695-BC82-61527A5A1117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3349411-B90A-4904-BDBB-E680932C00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>recite</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,15 @@
 所以，从“理解”这个意思看，discern和understand是反的，understand表示的理解，是从一个东西，理解出背后意思，从一个词语理解出一段话。而discern有点接近conclude，从一大段话总结出一段话或一个词语。
 recognize、spot、notice也接近。但他们更接近“觉察”，“缺少理解”的意思。我觉得，discern不是眼睛看到，是心里看到，recognize、spot、notice这三个词，基本同时兼具眼睛和心理，而discern要把眼睛的部分去掉，把心里的部分加强。
 中文“觉察”是很贴合discern的。就是心里的到结论。但，discern更多是心里总结清楚式的心里看到，而“觉察”是把心里本没看到的东西看到，把漏掉的东西看到，不太一样。所以，discern很少翻译成"觉察"。最好的中文翻译，也许是"弄清楚"。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state-of-the-art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最先进的，已臻化境
+来自知乎：为什么英语中“state-of-the-art”表示“最先进”的意思呢？（https://www.zhihu.com/question/23503643）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -427,6 +436,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
